--- a/HTML/F.xlsx
+++ b/HTML/F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CAAD11-4A92-40C9-92F2-D0E2E286E00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367E9845-CAB3-4D1E-B079-2585EC1128FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Problem Solving Sarcasm</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Dotnet Egypt</t>
+  </si>
+  <si>
+    <t>مستشارك التأمينى / مصر</t>
   </si>
 </sst>
 </file>
@@ -362,30 +365,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -393,8 +402,9 @@
     <hyperlink ref="A1" r:id="rId1" xr:uid="{71B159CC-6FA4-4C3F-8A3F-BC6D71792987}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{96007E62-617E-4C0E-BEE5-96E57979A00F}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{FBD92987-394A-4D59-B45F-73F737444714}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{2A9019A8-3DF3-4F9F-B28C-600BA56D1D5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/HTML/F.xlsx
+++ b/HTML/F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367E9845-CAB3-4D1E-B079-2585EC1128FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF717E6-0C11-42C0-90A3-391F52459963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Problem Solving Sarcasm</t>
-  </si>
-  <si>
-    <t>.Net Developers Egypt</t>
-  </si>
-  <si>
-    <t>Dotnet Egypt</t>
   </si>
   <si>
     <t>مستشارك التأمينى / مصر</t>
@@ -365,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,28 +377,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{71B159CC-6FA4-4C3F-8A3F-BC6D71792987}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{96007E62-617E-4C0E-BEE5-96E57979A00F}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{FBD92987-394A-4D59-B45F-73F737444714}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{2A9019A8-3DF3-4F9F-B28C-600BA56D1D5F}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{2A9019A8-3DF3-4F9F-B28C-600BA56D1D5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>